--- a/03_Arthrobacter_Growth/input/Sample_list.xlsx
+++ b/03_Arthrobacter_Growth/input/Sample_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomohisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomohisa/Desktop/Shimasaki_et_al_2026/03_Arthrobacter_Growth/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39351D9D-B348-7D4E-90BE-62556D6644BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66FD282-E045-2243-9438-0E27C7B73297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{C2E56849-DCFB-9947-8656-6D3A6C83F844}"/>
   </bookViews>
@@ -40,15 +40,9 @@
     <t>Sample 1</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
     <t>nicotine</t>
   </si>
   <si>
-    <t>WT_nicotine</t>
-  </si>
-  <si>
     <t>Sample 2</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
     <t>Sample 7</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>control_nicotine</t>
-  </si>
-  <si>
     <t>Sample 8</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>glucose</t>
   </si>
   <si>
-    <t>WT_glucose</t>
-  </si>
-  <si>
     <t>Sample 11</t>
   </si>
   <si>
@@ -115,13 +100,28 @@
     <t>Sample 16</t>
   </si>
   <si>
-    <t>control_glucose</t>
-  </si>
-  <si>
     <t>Sample 17</t>
   </si>
   <si>
     <t>Sample 18</t>
+  </si>
+  <si>
+    <t>wild-type</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>wild-type_nicotine</t>
+  </si>
+  <si>
+    <t>VC_nicotine</t>
+  </si>
+  <si>
+    <t>wild-type_glucose</t>
+  </si>
+  <si>
+    <t>VC_glucose</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5E5133-E95D-944C-BE17-3E54B02DAA0D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1010,13 +1012,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1024,16 +1026,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1041,16 +1043,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1058,16 +1060,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1075,16 +1077,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1092,16 +1094,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1109,16 +1111,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1126,16 +1128,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1143,16 +1145,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1160,16 +1162,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1177,16 +1179,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1194,16 +1196,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1211,16 +1213,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1228,16 +1230,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1245,16 +1247,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1262,16 +1264,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1279,16 +1281,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1296,16 +1298,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
       </c>
       <c r="E19">
         <v>3</v>
